--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Mmp12</t>
+  </si>
+  <si>
+    <t>Plaur</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Mmp12</t>
-  </si>
-  <si>
-    <t>Plaur</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3075116666666667</v>
+        <v>5.460530000000001</v>
       </c>
       <c r="H2">
-        <v>0.922535</v>
+        <v>16.38159</v>
       </c>
       <c r="I2">
-        <v>0.007629092790975173</v>
+        <v>0.2944949247881191</v>
       </c>
       <c r="J2">
-        <v>0.007629092790975171</v>
+        <v>0.2944949247881191</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.46646866666666</v>
+        <v>14.89002333333333</v>
       </c>
       <c r="N2">
-        <v>49.39940599999999</v>
+        <v>44.67007</v>
       </c>
       <c r="O2">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330596</v>
       </c>
       <c r="P2">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330597</v>
       </c>
       <c r="Q2">
-        <v>5.063631223801111</v>
+        <v>81.30741911236669</v>
       </c>
       <c r="R2">
-        <v>45.57268101420999</v>
+        <v>731.7667720113002</v>
       </c>
       <c r="S2">
-        <v>0.001041259168893032</v>
+        <v>0.03517716062142566</v>
       </c>
       <c r="T2">
-        <v>0.001041259168893031</v>
+        <v>0.03517716062142566</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3075116666666667</v>
+        <v>5.460530000000001</v>
       </c>
       <c r="H3">
-        <v>0.922535</v>
+        <v>16.38159</v>
       </c>
       <c r="I3">
-        <v>0.007629092790975173</v>
+        <v>0.2944949247881191</v>
       </c>
       <c r="J3">
-        <v>0.007629092790975171</v>
+        <v>0.2944949247881191</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>19.253742</v>
       </c>
       <c r="O3">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166413</v>
       </c>
       <c r="P3">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166414</v>
       </c>
       <c r="Q3">
-        <v>1.973583430663333</v>
+        <v>35.04521193442</v>
       </c>
       <c r="R3">
-        <v>17.76225087597</v>
+        <v>315.40690740978</v>
       </c>
       <c r="S3">
-        <v>0.0004058375801725401</v>
+        <v>0.01516209790800617</v>
       </c>
       <c r="T3">
-        <v>0.00040583758017254</v>
+        <v>0.01516209790800617</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3075116666666667</v>
+        <v>5.460530000000001</v>
       </c>
       <c r="H4">
-        <v>0.922535</v>
+        <v>16.38159</v>
       </c>
       <c r="I4">
-        <v>0.007629092790975173</v>
+        <v>0.2944949247881191</v>
       </c>
       <c r="J4">
-        <v>0.007629092790975171</v>
+        <v>0.2944949247881191</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.95349166666666</v>
+        <v>66.36284166666667</v>
       </c>
       <c r="N4">
-        <v>113.860475</v>
+        <v>199.088525</v>
       </c>
       <c r="O4">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884161</v>
       </c>
       <c r="P4">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884162</v>
       </c>
       <c r="Q4">
-        <v>11.67114147823611</v>
+        <v>362.3762878060834</v>
       </c>
       <c r="R4">
-        <v>105.040273304125</v>
+        <v>3261.38659025475</v>
       </c>
       <c r="S4">
-        <v>0.002399993707783972</v>
+        <v>0.1567798980795803</v>
       </c>
       <c r="T4">
-        <v>0.002399993707783972</v>
+        <v>0.1567798980795803</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3075116666666667</v>
+        <v>5.460530000000001</v>
       </c>
       <c r="H5">
-        <v>0.922535</v>
+        <v>16.38159</v>
       </c>
       <c r="I5">
-        <v>0.007629092790975173</v>
+        <v>0.2944949247881191</v>
       </c>
       <c r="J5">
-        <v>0.007629092790975171</v>
+        <v>0.2944949247881191</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.897192666666666</v>
+        <v>3.521285666666667</v>
       </c>
       <c r="N5">
-        <v>14.691578</v>
+        <v>10.563857</v>
       </c>
       <c r="O5">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="P5">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="Q5">
-        <v>1.505943878914444</v>
+        <v>19.22808602140334</v>
       </c>
       <c r="R5">
-        <v>13.55349491023</v>
+        <v>173.05277419263</v>
       </c>
       <c r="S5">
-        <v>0.0003096745798523802</v>
+        <v>0.008318914532051814</v>
       </c>
       <c r="T5">
-        <v>0.0003096745798523802</v>
+        <v>0.008318914532051814</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3075116666666667</v>
+        <v>5.460530000000001</v>
       </c>
       <c r="H6">
-        <v>0.922535</v>
+        <v>16.38159</v>
       </c>
       <c r="I6">
-        <v>0.007629092790975173</v>
+        <v>0.2944949247881191</v>
       </c>
       <c r="J6">
-        <v>0.007629092790975171</v>
+        <v>0.2944949247881191</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.91137833333332</v>
+        <v>33.46371266666667</v>
       </c>
       <c r="N6">
-        <v>164.734135</v>
+        <v>100.391138</v>
       </c>
       <c r="O6">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="P6">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="Q6">
-        <v>16.88588947024722</v>
+        <v>182.7296069277134</v>
       </c>
       <c r="R6">
-        <v>151.973005232225</v>
+        <v>1644.56646234942</v>
       </c>
       <c r="S6">
-        <v>0.003472327754273249</v>
+        <v>0.07905685364705516</v>
       </c>
       <c r="T6">
-        <v>0.003472327754273249</v>
+        <v>0.07905685364705516</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>18.485228</v>
+        <v>0.010838</v>
       </c>
       <c r="H7">
-        <v>55.455684</v>
+        <v>0.032514</v>
       </c>
       <c r="I7">
-        <v>0.4586021766361137</v>
+        <v>0.0005845102938457686</v>
       </c>
       <c r="J7">
-        <v>0.4586021766361137</v>
+        <v>0.0005845102938457686</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.46646866666666</v>
+        <v>14.89002333333333</v>
       </c>
       <c r="N7">
-        <v>49.39940599999999</v>
+        <v>44.67007</v>
       </c>
       <c r="O7">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330596</v>
       </c>
       <c r="P7">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330597</v>
       </c>
       <c r="Q7">
-        <v>304.3864276581893</v>
+        <v>0.1613780728866667</v>
       </c>
       <c r="R7">
-        <v>2739.477848923703</v>
+        <v>1.45240265598</v>
       </c>
       <c r="S7">
-        <v>0.06259246471107827</v>
+        <v>6.981924223747718E-05</v>
       </c>
       <c r="T7">
-        <v>0.06259246471107825</v>
+        <v>6.981924223747718E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>18.485228</v>
+        <v>0.010838</v>
       </c>
       <c r="H8">
-        <v>55.455684</v>
+        <v>0.032514</v>
       </c>
       <c r="I8">
-        <v>0.4586021766361137</v>
+        <v>0.0005845102938457686</v>
       </c>
       <c r="J8">
-        <v>0.4586021766361137</v>
+        <v>0.0005845102938457686</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>19.253742</v>
       </c>
       <c r="O8">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166413</v>
       </c>
       <c r="P8">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166414</v>
       </c>
       <c r="Q8">
-        <v>118.636603574392</v>
+        <v>0.06955735193199999</v>
       </c>
       <c r="R8">
-        <v>1067.729432169528</v>
+        <v>0.626016167388</v>
       </c>
       <c r="S8">
-        <v>0.02439582303259286</v>
+        <v>3.009356548301554E-05</v>
       </c>
       <c r="T8">
-        <v>0.02439582303259285</v>
+        <v>3.009356548301555E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>18.485228</v>
+        <v>0.010838</v>
       </c>
       <c r="H9">
-        <v>55.455684</v>
+        <v>0.032514</v>
       </c>
       <c r="I9">
-        <v>0.4586021766361137</v>
+        <v>0.0005845102938457686</v>
       </c>
       <c r="J9">
-        <v>0.4586021766361137</v>
+        <v>0.0005845102938457686</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.95349166666666</v>
+        <v>66.36284166666667</v>
       </c>
       <c r="N9">
-        <v>113.860475</v>
+        <v>199.088525</v>
       </c>
       <c r="O9">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884161</v>
       </c>
       <c r="P9">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884162</v>
       </c>
       <c r="Q9">
-        <v>701.5789468544332</v>
+        <v>0.7192404779833333</v>
       </c>
       <c r="R9">
-        <v>6314.210521689899</v>
+        <v>6.473164301850001</v>
       </c>
       <c r="S9">
-        <v>0.1442690983657599</v>
+        <v>0.0003111750206273917</v>
       </c>
       <c r="T9">
-        <v>0.1442690983657599</v>
+        <v>0.0003111750206273917</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>18.485228</v>
+        <v>0.010838</v>
       </c>
       <c r="H10">
-        <v>55.455684</v>
+        <v>0.032514</v>
       </c>
       <c r="I10">
-        <v>0.4586021766361137</v>
+        <v>0.0005845102938457686</v>
       </c>
       <c r="J10">
-        <v>0.4586021766361137</v>
+        <v>0.0005845102938457686</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.897192666666666</v>
+        <v>3.521285666666667</v>
       </c>
       <c r="N10">
-        <v>14.691578</v>
+        <v>10.563857</v>
       </c>
       <c r="O10">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="P10">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="Q10">
-        <v>90.52572300326132</v>
+        <v>0.03816369405533334</v>
       </c>
       <c r="R10">
-        <v>814.731507029352</v>
+        <v>0.343473246498</v>
       </c>
       <c r="S10">
-        <v>0.01861524564718559</v>
+        <v>1.651129024076007E-05</v>
       </c>
       <c r="T10">
-        <v>0.01861524564718559</v>
+        <v>1.651129024076007E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>18.485228</v>
+        <v>0.010838</v>
       </c>
       <c r="H11">
-        <v>55.455684</v>
+        <v>0.032514</v>
       </c>
       <c r="I11">
-        <v>0.4586021766361137</v>
+        <v>0.0005845102938457686</v>
       </c>
       <c r="J11">
-        <v>0.4586021766361137</v>
+        <v>0.0005845102938457686</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.91137833333332</v>
+        <v>33.46371266666667</v>
       </c>
       <c r="N11">
-        <v>164.734135</v>
+        <v>100.391138</v>
       </c>
       <c r="O11">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="P11">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="Q11">
-        <v>1015.049348285926</v>
+        <v>0.3626797178813334</v>
       </c>
       <c r="R11">
-        <v>9135.444134573339</v>
+        <v>3.264117460932</v>
       </c>
       <c r="S11">
-        <v>0.2087295448794972</v>
+        <v>0.0001569111752571241</v>
       </c>
       <c r="T11">
-        <v>0.2087295448794972</v>
+        <v>0.0001569111752571241</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.031674</v>
+        <v>13.07064933333333</v>
       </c>
       <c r="H12">
-        <v>0.09502200000000001</v>
+        <v>39.211948</v>
       </c>
       <c r="I12">
-        <v>0.000785803958856892</v>
+        <v>0.7049205649180351</v>
       </c>
       <c r="J12">
-        <v>0.000785803958856892</v>
+        <v>0.7049205649180351</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.46646866666666</v>
+        <v>14.89002333333333</v>
       </c>
       <c r="N12">
-        <v>49.39940599999999</v>
+        <v>44.67007</v>
       </c>
       <c r="O12">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330596</v>
       </c>
       <c r="P12">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330597</v>
       </c>
       <c r="Q12">
-        <v>0.5215589285479999</v>
+        <v>194.6222735551511</v>
       </c>
       <c r="R12">
-        <v>4.694030356932</v>
+        <v>1751.60046199636</v>
       </c>
       <c r="S12">
-        <v>0.0001072507045765783</v>
+        <v>0.08420214356939651</v>
       </c>
       <c r="T12">
-        <v>0.0001072507045765783</v>
+        <v>0.08420214356939652</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.031674</v>
+        <v>13.07064933333333</v>
       </c>
       <c r="H13">
-        <v>0.09502200000000001</v>
+        <v>39.211948</v>
       </c>
       <c r="I13">
-        <v>0.000785803958856892</v>
+        <v>0.7049205649180351</v>
       </c>
       <c r="J13">
-        <v>0.000785803958856892</v>
+        <v>0.7049205649180351</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>19.253742</v>
       </c>
       <c r="O13">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166413</v>
       </c>
       <c r="P13">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166414</v>
       </c>
       <c r="Q13">
-        <v>0.203281008036</v>
+        <v>83.88630334549066</v>
       </c>
       <c r="R13">
-        <v>1.829529072324</v>
+        <v>754.9767301094159</v>
       </c>
       <c r="S13">
-        <v>4.18016644822745E-05</v>
+        <v>0.03629289920817495</v>
       </c>
       <c r="T13">
-        <v>4.18016644822745E-05</v>
+        <v>0.03629289920817495</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.031674</v>
+        <v>13.07064933333333</v>
       </c>
       <c r="H14">
-        <v>0.09502200000000001</v>
+        <v>39.211948</v>
       </c>
       <c r="I14">
-        <v>0.000785803958856892</v>
+        <v>0.7049205649180351</v>
       </c>
       <c r="J14">
-        <v>0.000785803958856892</v>
+        <v>0.7049205649180351</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>37.95349166666666</v>
+        <v>66.36284166666667</v>
       </c>
       <c r="N14">
-        <v>113.860475</v>
+        <v>199.088525</v>
       </c>
       <c r="O14">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884161</v>
       </c>
       <c r="P14">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884162</v>
       </c>
       <c r="Q14">
-        <v>1.20213889505</v>
+        <v>867.4054321885222</v>
       </c>
       <c r="R14">
-        <v>10.81925005545</v>
+        <v>7806.6488896967</v>
       </c>
       <c r="S14">
-        <v>0.0002472016802625901</v>
+        <v>0.3752776873882084</v>
       </c>
       <c r="T14">
-        <v>0.0002472016802625901</v>
+        <v>0.3752776873882085</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.031674</v>
+        <v>13.07064933333333</v>
       </c>
       <c r="H15">
-        <v>0.09502200000000001</v>
+        <v>39.211948</v>
       </c>
       <c r="I15">
-        <v>0.000785803958856892</v>
+        <v>0.7049205649180351</v>
       </c>
       <c r="J15">
-        <v>0.000785803958856892</v>
+        <v>0.7049205649180351</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.897192666666666</v>
+        <v>3.521285666666667</v>
       </c>
       <c r="N15">
-        <v>14.691578</v>
+        <v>10.563857</v>
       </c>
       <c r="O15">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="P15">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="Q15">
-        <v>0.155113680524</v>
+        <v>46.0254901514929</v>
       </c>
       <c r="R15">
-        <v>1.396023124716</v>
+        <v>414.229411363436</v>
       </c>
       <c r="S15">
-        <v>3.189678215648498E-05</v>
+        <v>0.01991264853089719</v>
       </c>
       <c r="T15">
-        <v>3.189678215648498E-05</v>
+        <v>0.01991264853089719</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.031674</v>
+        <v>13.07064933333333</v>
       </c>
       <c r="H16">
-        <v>0.09502200000000001</v>
+        <v>39.211948</v>
       </c>
       <c r="I16">
-        <v>0.000785803958856892</v>
+        <v>0.7049205649180351</v>
       </c>
       <c r="J16">
-        <v>0.000785803958856892</v>
+        <v>0.7049205649180351</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.91137833333332</v>
+        <v>33.46371266666667</v>
       </c>
       <c r="N16">
-        <v>164.734135</v>
+        <v>100.391138</v>
       </c>
       <c r="O16">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="P16">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="Q16">
-        <v>1.73926299733</v>
+        <v>437.3924536574249</v>
       </c>
       <c r="R16">
-        <v>15.65336697597</v>
+        <v>3936.532082916824</v>
       </c>
       <c r="S16">
-        <v>0.0003576531273789641</v>
+        <v>0.189235186221358</v>
       </c>
       <c r="T16">
-        <v>0.0003576531273789641</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>21.48334966666667</v>
-      </c>
-      <c r="H17">
-        <v>64.45004899999999</v>
-      </c>
-      <c r="I17">
-        <v>0.5329829266140543</v>
-      </c>
-      <c r="J17">
-        <v>0.5329829266140542</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>16.46646866666666</v>
-      </c>
-      <c r="N17">
-        <v>49.39940599999999</v>
-      </c>
-      <c r="O17">
-        <v>0.1364853197387752</v>
-      </c>
-      <c r="P17">
-        <v>0.1364853197387752</v>
-      </c>
-      <c r="Q17">
-        <v>353.7549041412104</v>
-      </c>
-      <c r="R17">
-        <v>3183.794137270893</v>
-      </c>
-      <c r="S17">
-        <v>0.07274434515422738</v>
-      </c>
-      <c r="T17">
-        <v>0.07274434515422737</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>21.48334966666667</v>
-      </c>
-      <c r="H18">
-        <v>64.45004899999999</v>
-      </c>
-      <c r="I18">
-        <v>0.5329829266140543</v>
-      </c>
-      <c r="J18">
-        <v>0.5329829266140542</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>6.417914</v>
-      </c>
-      <c r="N18">
-        <v>19.253742</v>
-      </c>
-      <c r="O18">
-        <v>0.05319604719615224</v>
-      </c>
-      <c r="P18">
-        <v>0.05319604719615224</v>
-      </c>
-      <c r="Q18">
-        <v>137.8782905925953</v>
-      </c>
-      <c r="R18">
-        <v>1240.904615333358</v>
-      </c>
-      <c r="S18">
-        <v>0.02835258491890458</v>
-      </c>
-      <c r="T18">
-        <v>0.02835258491890458</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>21.48334966666667</v>
-      </c>
-      <c r="H19">
-        <v>64.45004899999999</v>
-      </c>
-      <c r="I19">
-        <v>0.5329829266140543</v>
-      </c>
-      <c r="J19">
-        <v>0.5329829266140542</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>37.95349166666666</v>
-      </c>
-      <c r="N19">
-        <v>113.860475</v>
-      </c>
-      <c r="O19">
-        <v>0.3145844169863869</v>
-      </c>
-      <c r="P19">
-        <v>0.3145844169863869</v>
-      </c>
-      <c r="Q19">
-        <v>815.3681325459193</v>
-      </c>
-      <c r="R19">
-        <v>7338.313192913273</v>
-      </c>
-      <c r="S19">
-        <v>0.1676681232325805</v>
-      </c>
-      <c r="T19">
-        <v>0.1676681232325805</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>21.48334966666667</v>
-      </c>
-      <c r="H20">
-        <v>64.45004899999999</v>
-      </c>
-      <c r="I20">
-        <v>0.5329829266140543</v>
-      </c>
-      <c r="J20">
-        <v>0.5329829266140542</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>4.897192666666666</v>
-      </c>
-      <c r="N20">
-        <v>14.691578</v>
-      </c>
-      <c r="O20">
-        <v>0.04059127190309042</v>
-      </c>
-      <c r="P20">
-        <v>0.04059127190309042</v>
-      </c>
-      <c r="Q20">
-        <v>105.2081024430358</v>
-      </c>
-      <c r="R20">
-        <v>946.8729219873219</v>
-      </c>
-      <c r="S20">
-        <v>0.02163445489389597</v>
-      </c>
-      <c r="T20">
-        <v>0.02163445489389596</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>21.48334966666667</v>
-      </c>
-      <c r="H21">
-        <v>64.45004899999999</v>
-      </c>
-      <c r="I21">
-        <v>0.5329829266140543</v>
-      </c>
-      <c r="J21">
-        <v>0.5329829266140542</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>54.91137833333332</v>
-      </c>
-      <c r="N21">
-        <v>164.734135</v>
-      </c>
-      <c r="O21">
-        <v>0.4551429441755953</v>
-      </c>
-      <c r="P21">
-        <v>0.4551429441755953</v>
-      </c>
-      <c r="Q21">
-        <v>1179.680341413624</v>
-      </c>
-      <c r="R21">
-        <v>10617.12307272261</v>
-      </c>
-      <c r="S21">
-        <v>0.2425834184144459</v>
-      </c>
-      <c r="T21">
-        <v>0.2425834184144459</v>
+        <v>0.189235186221358</v>
       </c>
     </row>
   </sheetData>
